--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed1/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.70179999999999</v>
+        <v>-20.7025</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.3057</v>
+        <v>-11.90690000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.75519999999998</v>
+        <v>-19.21589999999998</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.8823</v>
+        <v>-8.181099999999997</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.279</v>
+        <v>-10.37459999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.571599999999993</v>
+        <v>-8.454299999999995</v>
       </c>
     </row>
     <row r="14">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.98820000000002</v>
+        <v>-22.01390000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.6408</v>
+        <v>-12.27209999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.2614</v>
+        <v>-10.9974</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.79369999999999</v>
+        <v>-12.07699999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.905</v>
+        <v>-21.912</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.04689999999997</v>
+        <v>-21.08849999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.934999999999995</v>
+        <v>-6.887799999999996</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.1437</v>
+        <v>-13.1193</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.15329999999999</v>
+        <v>-21.11040000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.39380000000001</v>
+        <v>-20.55720000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.07850000000001</v>
+        <v>-11.56910000000002</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.4406</v>
+        <v>-7.545999999999998</v>
       </c>
     </row>
     <row r="41">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.20280000000001</v>
+        <v>-11.20130000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.642500000000007</v>
+        <v>-6.512800000000004</v>
       </c>
     </row>
     <row r="45">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.3217</v>
+        <v>-12.11269999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.196</v>
+        <v>-11.5942</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.21409999999999</v>
+        <v>-22.22409999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.2722</v>
+        <v>-22.2093</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.142</v>
+        <v>-10.216</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.7197</v>
+        <v>-10.77289999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.44540000000001</v>
+        <v>-21.40329999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.2164</v>
+        <v>-11.9184</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.11399999999999</v>
+        <v>-14.0175</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.97449999999999</v>
+        <v>-13.6642</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.548399999999994</v>
+        <v>-8.631199999999993</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.869300000000001</v>
+        <v>-7.9237</v>
       </c>
     </row>
     <row r="92">
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.8087</v>
+        <v>-10.7814</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.03560000000003</v>
+        <v>-22.03310000000003</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
